--- a/assets/template-import/template-import-karyawan.xlsx
+++ b/assets/template-import/template-import-karyawan.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loele Tan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loele Tan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18644407-E9FF-49D1-B19C-637EA84FEA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1979CF-152F-4320-8058-7F9DA5D1F922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NIK</t>
   </si>
@@ -33,50 +40,41 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>JENIS KELAMIN</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>TEMPAT LAHIR</t>
   </si>
   <si>
-    <t>TANGGAL LAHIR</t>
-  </si>
-  <si>
-    <t>AGAMA</t>
-  </si>
-  <si>
-    <t>TINGGI</t>
-  </si>
-  <si>
-    <t>BERAT</t>
-  </si>
-  <si>
-    <t>SUKU</t>
-  </si>
-  <si>
     <t>ALAMAT</t>
   </si>
   <si>
-    <t>HANDPHONE</t>
-  </si>
-  <si>
     <t>PENDIDIKAN</t>
   </si>
   <si>
-    <t>PENGALAMAN</t>
-  </si>
-  <si>
-    <t>PELATIHAN</t>
+    <t>1234567890123450</t>
+  </si>
+  <si>
+    <t>TGL.LAHIR</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>Jl. Juanda No 1</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>22-11-1996</t>
+  </si>
+  <si>
+    <t>Nama Contoh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +90,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +118,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,34 +148,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,74 +453,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="A1 A6:A1048576" xr:uid="{40537B67-4893-4F94-8C17-E0B3C3C296E3}">
+      <formula1>16</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
